--- a/generalRGBmod/discontinued/pcbs/v1/BOM_n64rgbv1.xlsx
+++ b/generalRGBmod/discontinued/pcbs/v1/BOM_n64rgbv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Peter\Documents\Workspaces\Git\Mirror\n64rgb\generalRGBmod\Main-PCB\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Peter\Documents\Workspaces\GitHub\n64rgb\generalRGBmod\discontinued\pcbs\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B4426-5DE5-40D6-9748-D10618126C11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC4599-1010-45D2-831F-F9A53817544A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10395" yWindow="2865" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxV Setup" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="126">
   <si>
     <t>Designator</t>
   </si>
@@ -82,9 +82,6 @@
     <t>MPNs are only suggestions! You can use equivalent components, too.</t>
   </si>
   <si>
-    <t xml:space="preserve">5M240ZT100C4N </t>
-  </si>
-  <si>
     <t>TQFP100</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
   </si>
   <si>
     <t>Formerly FB2 was J1 (version 5M_20171211 and earlier)</t>
-  </si>
-  <si>
-    <t>Alternative to 5M570ZT100 with less Les, leave J1 open (at version 5M_20171211 and earlier, J1 was not present here)</t>
   </si>
   <si>
     <t>Alternative to EPM570T100 with less Les, leave J1 open (at version 5M_20171211 and earlier, J1 was not present here)</t>
@@ -436,7 +430,16 @@
     <t>5M570ZT100C5N</t>
   </si>
   <si>
-    <t>Close J1, Alternative part: 5M570ZT100C4N</t>
+    <t xml:space="preserve">5M240ZT100C5N </t>
+  </si>
+  <si>
+    <t>Recommended part, leave J1 open, Alternative part: 5M240ZT100C4N</t>
+  </si>
+  <si>
+    <t>Alternative to 5M240ZT100 with more LEs, Close J1, Alternative part: 5M570ZT100C4N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (at version 5M_20171211 and earlier, J1 was not present here)</t>
   </si>
 </sst>
 </file>
@@ -1291,22 +1294,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="59.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1329,18 +1330,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1349,334 +1350,322 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>125</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="3"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>59</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>114</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1687,34 +1676,31 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1723,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1731,12 +1717,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1745,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1753,12 +1739,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1767,7 +1753,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1775,12 +1761,12 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1789,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1797,12 +1783,21 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
       <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1810,43 +1805,34 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="4">
+        <v>73</v>
+      </c>
+      <c r="C32">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1854,62 +1840,65 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="C33" s="4">
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1920,145 +1909,164 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>94</v>
-      </c>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>102</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" t="s">
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E50" s="2"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="2"/>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E53" s="2"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2069,18 +2077,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="59.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2103,53 +2111,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -2158,23 +2166,23 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -2182,23 +2190,23 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2207,107 +2215,107 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2316,20 +2324,20 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -2338,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -2346,12 +2354,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2360,89 +2368,89 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
       </c>
-      <c r="D22" t="s">
-        <v>116</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2451,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2459,12 +2467,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2473,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2481,12 +2489,12 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2495,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2503,12 +2511,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2517,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2525,12 +2533,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2539,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2547,12 +2555,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2560,21 +2568,21 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -2582,21 +2590,21 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -2604,12 +2612,12 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -2618,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2626,118 +2634,118 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -2750,55 +2758,55 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
   </sheetData>
